--- a/auto_job_python/yokochi/ana/files/price.xlsx
+++ b/auto_job_python/yokochi/ana/files/price.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,22 +463,22 @@
           <t>プレミアム</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>フレックス</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>バリュー</t>
+        </is>
+      </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>バリュー</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
           <t>ビジネスきっぷ</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>株主優待割引</t>
         </is>
@@ -497,24 +497,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-03-03</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>2023-03-02</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>2023-03-02</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2023-03-03</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>2023-03-01</t>
@@ -527,37 +527,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-03-03</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
           <t>2023-03-02</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>2023-03-03</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>2023-03-01</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2023-03-02</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>2023-03-03</t>
         </is>
       </c>
     </row>
@@ -579,7 +554,11 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>45680</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>45680</t>
@@ -587,55 +566,30 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>30580</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>30580</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
         <is>
           <t>23080</t>
         </is>
@@ -664,12 +618,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>62080</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>45680</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -679,55 +633,30 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>30580</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>30580</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
         <is>
           <t>23080</t>
         </is>
@@ -761,7 +690,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>45680</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -771,55 +700,30 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>32280</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>32280</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
         <is>
           <t>23080</t>
         </is>
@@ -853,7 +757,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>45680</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -863,55 +767,30 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>32280</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>32280</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
         <is>
           <t>23080</t>
         </is>
@@ -935,7 +814,11 @@
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>45680</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>45680</t>
@@ -943,55 +826,30 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>32280</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>34980</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>32280</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>34980</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>34980</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>満席</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
         <is>
           <t>満席</t>
         </is>
@@ -1025,7 +883,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>45680</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1035,55 +893,30 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
         <is>
           <t>23080</t>
         </is>
@@ -1115,7 +948,11 @@
           <t>49080</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>45680</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>45680</t>
@@ -1123,55 +960,30 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
         <is>
           <t>23080</t>
         </is>
@@ -1205,7 +1017,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>45680</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1215,57 +1027,32 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>空席待ち:51780</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>空席待ち:34980</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>空席待ち:45580</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>空席待ち:23080</t>
+          <t>23080</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1084,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>45680</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1307,55 +1094,30 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
         <is>
           <t>23080</t>
         </is>
@@ -1379,7 +1141,11 @@
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>45680</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>45680</t>
@@ -1387,55 +1153,30 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
         <is>
           <t>23080</t>
         </is>
@@ -1464,12 +1205,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>54380</t>
+          <t>49080</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>56380</t>
+          <t>45680</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1479,55 +1220,30 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
         <is>
           <t>23080</t>
         </is>
@@ -1551,7 +1267,11 @@
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>45680</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>45680</t>
@@ -1559,55 +1279,30 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
         <is>
           <t>23080</t>
         </is>
@@ -1637,7 +1332,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>45680</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1647,55 +1342,30 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
         <is>
           <t>23080</t>
         </is>
@@ -1729,7 +1399,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>45680</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1739,55 +1409,30 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
         <is>
           <t>23080</t>
         </is>
@@ -1811,7 +1456,11 @@
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>45680</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>45680</t>
@@ -1819,55 +1468,30 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>34980</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>34980</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>34980</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>満席</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
         <is>
           <t>満席</t>
         </is>
@@ -1901,7 +1525,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>50280</t>
+          <t>45680</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1911,57 +1535,32 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>34980</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>満席</t>
+          <t>23080</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1582,11 @@
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>45680</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>45680</t>
@@ -1991,57 +1594,32 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>31980</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>34480</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>31980</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>34480</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>34980</t>
+          <t>満席</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>満席</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>満席</t>
+          <t>23080</t>
         </is>
       </c>
     </row>
@@ -2073,7 +1651,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>50280</t>
+          <t>45680</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2083,55 +1661,30 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>34480</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>34480</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>34480</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
         <is>
           <t>23080</t>
         </is>
@@ -2163,7 +1716,11 @@
           <t>50280</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>45680</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>45680</t>
@@ -2171,55 +1728,30 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>34480</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>34480</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>34480</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
         <is>
           <t>23080</t>
         </is>
@@ -2248,10 +1780,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>50280</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>62080</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>45680</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>45680</t>
@@ -2259,57 +1795,32 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>34480</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>34480</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>34980</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>満席</t>
+          <t>23080</t>
         </is>
       </c>
     </row>
@@ -2339,7 +1850,11 @@
           <t>50280</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>45680</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>45680</t>
@@ -2347,55 +1862,30 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>34480</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>34480</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>34480</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
         <is>
           <t>23080</t>
         </is>
@@ -2419,7 +1909,11 @@
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>45680</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>45680</t>
@@ -2427,55 +1921,30 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>34480</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>34480</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>34980</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>満席</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
         <is>
           <t>満席</t>
         </is>
@@ -2499,17 +1968,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>47380</t>
+          <t>62080</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>50280</t>
+          <t>62080</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>50280</t>
+          <t>45680</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2519,55 +1988,30 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>34480</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>34480</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>34480</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
         <is>
           <t>23080</t>
         </is>
@@ -2601,7 +2045,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>45680</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2611,57 +2055,32 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>34980</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>満席</t>
+          <t>23080</t>
         </is>
       </c>
     </row>
@@ -2693,7 +2112,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>45680</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2703,55 +2122,30 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>29280</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>29280</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
         <is>
           <t>23080</t>
         </is>
@@ -2775,7 +2169,11 @@
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>45680</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>45680</t>
@@ -2783,55 +2181,30 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>29280</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>29280</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
         <is>
           <t>23080</t>
         </is>
@@ -2865,7 +2238,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>45680</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2875,55 +2248,30 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>29280</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>29280</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>43480</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>45580</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
         <is>
           <t>23080</t>
         </is>
@@ -2940,7 +2288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2969,12 +2317,12 @@
           <t>プレミアム</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>バリュー3</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>バリュー1</t>
         </is>
@@ -2993,37 +2341,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-03-03</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>2023-03-02</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>2023-03-02</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2023-03-03</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2023-03-01</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2023-03-02</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2023-03-03</t>
         </is>
       </c>
     </row>
@@ -3045,33 +2378,22 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>30580</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30580</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>35480</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>33380</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>35480</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
         <is>
           <t>35680</t>
         </is>
@@ -3100,40 +2422,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>62080</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>30580</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30580</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>35480</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>33380</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>35480</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
         <is>
           <t>35680</t>
         </is>
@@ -3167,35 +2474,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>32280</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>32280</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>35680</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
-        <is>
-          <t>33380</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
         <is>
           <t>35680</t>
         </is>
@@ -3229,35 +2521,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>32280</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>32280</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>35680</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
-        <is>
-          <t>33380</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
         <is>
           <t>35680</t>
         </is>
@@ -3281,33 +2558,22 @@
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>32280</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>32280</t>
+          <t>34980</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>34980</t>
+          <t>35680</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>34980</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
         <is>
           <t>35680</t>
         </is>
@@ -3341,35 +2607,20 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>35680</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
-        <is>
-          <t>33380</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
         <is>
           <t>35680</t>
         </is>
@@ -3401,33 +2652,22 @@
           <t>49080</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>31680</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>35680</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
-        <is>
-          <t>33380</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
         <is>
           <t>35680</t>
         </is>
@@ -3461,37 +2701,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>35680</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>空席待ち:34980</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
           <t>35680</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>空席待ち:45180</t>
         </is>
       </c>
     </row>
@@ -3523,35 +2748,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>35680</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
-        <is>
-          <t>33380</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
         <is>
           <t>35680</t>
         </is>
@@ -3575,33 +2785,22 @@
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>31680</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>35680</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
-        <is>
-          <t>33380</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
         <is>
           <t>35680</t>
         </is>
@@ -3630,40 +2829,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>54380</t>
+          <t>49080</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>56380</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>35680</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
-        <is>
-          <t>33380</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
         <is>
           <t>35680</t>
         </is>
@@ -3687,33 +2871,22 @@
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>31680</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>35680</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
-        <is>
-          <t>33380</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
         <is>
           <t>35680</t>
         </is>
@@ -3743,35 +2916,20 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>35680</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
-        <is>
-          <t>33380</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
         <is>
           <t>35680</t>
         </is>
@@ -3805,35 +2963,20 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>35680</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
-        <is>
-          <t>33380</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
         <is>
           <t>35680</t>
         </is>
@@ -3857,33 +3000,22 @@
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>31680</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>34980</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>34980</t>
+          <t>35680</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
-        <is>
-          <t>34980</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
         <is>
           <t>35680</t>
         </is>
@@ -3917,35 +3049,20 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>50280</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>35680</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
-        <is>
-          <t>34980</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
         <is>
           <t>35680</t>
         </is>
@@ -3969,33 +3086,22 @@
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>31980</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>31980</t>
+          <t>34480</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>34480</t>
+          <t>36480</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
-        <is>
-          <t>34980</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>36480</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>36680</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
         <is>
           <t>36680</t>
         </is>
@@ -4029,35 +3135,20 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>50280</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>34480</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>34480</t>
+          <t>36480</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
-        <is>
-          <t>34480</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>36480</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>36680</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
         <is>
           <t>36680</t>
         </is>
@@ -4089,33 +3180,22 @@
           <t>50280</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>31680</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>34480</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>34480</t>
+          <t>36480</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
-        <is>
-          <t>34480</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>36480</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>36680</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
         <is>
           <t>36680</t>
         </is>
@@ -4144,36 +3224,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>50280</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>62080</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>31680</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>34480</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>34480</t>
+          <t>36480</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
-        <is>
-          <t>34980</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>36480</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>36680</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
         <is>
           <t>36680</t>
         </is>
@@ -4205,33 +3274,22 @@
           <t>50280</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>31680</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>34480</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>34480</t>
+          <t>36480</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
-        <is>
-          <t>34480</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>36480</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>36680</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
         <is>
           <t>36680</t>
         </is>
@@ -4255,33 +3313,22 @@
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>31680</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>34480</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>34480</t>
+          <t>36480</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
-        <is>
-          <t>34980</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>36480</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>36680</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
         <is>
           <t>36680</t>
         </is>
@@ -4305,45 +3352,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>47380</t>
+          <t>62080</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>50280</t>
+          <t>62080</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>50280</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>34480</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>34480</t>
+          <t>36480</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
-        <is>
-          <t>34480</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>36480</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>36680</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
         <is>
           <t>36680</t>
         </is>
@@ -4377,35 +3409,20 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>31680</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>35680</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
-        <is>
-          <t>34980</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
         <is>
           <t>35680</t>
         </is>
@@ -4439,35 +3456,20 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>29280</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>29280</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>34180</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
-        <is>
-          <t>33380</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>34180</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
         <is>
           <t>35680</t>
         </is>
@@ -4491,33 +3493,22 @@
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>29280</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>29280</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>34180</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
-        <is>
-          <t>33380</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>34180</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
         <is>
           <t>35680</t>
         </is>
@@ -4551,35 +3542,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>29280</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>29280</t>
+          <t>33380</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>33380</t>
+          <t>34180</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
-        <is>
-          <t>33380</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>34180</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>35680</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
         <is>
           <t>35680</t>
         </is>
@@ -4596,7 +3572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4625,17 +3601,17 @@
           <t>プレミアム</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>障がい者割引運賃</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>株主優待割引</t>
+        </is>
+      </c>
       <c r="J1" t="inlineStr">
-        <is>
-          <t>株主優待割引</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
         <is>
           <t>介護割引</t>
         </is>
@@ -4654,24 +3630,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-03-03</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>2023-03-02</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>2023-03-02</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2023-03-03</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>2023-03-01</t>
@@ -4680,26 +3656,6 @@
       <c r="K2" t="inlineStr">
         <is>
           <t>2023-03-02</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2023-03-03</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2023-03-01</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2023-03-02</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>2023-03-03</t>
         </is>
       </c>
     </row>
@@ -4721,7 +3677,11 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>25080</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>25080</t>
@@ -4729,40 +3689,20 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -4791,12 +3731,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>62080</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>25080</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -4806,40 +3746,20 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -4873,7 +3793,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>25080</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -4883,40 +3803,20 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -4950,7 +3850,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>25080</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -4960,40 +3860,20 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -5017,7 +3897,11 @@
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>25080</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>25080</t>
@@ -5025,40 +3909,20 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>満席</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
-        <is>
-          <t>満席</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>満席</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -5092,7 +3956,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>25080</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -5102,40 +3966,20 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -5167,7 +4011,11 @@
           <t>49080</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>25080</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>25080</t>
@@ -5175,40 +4023,20 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -5242,7 +4070,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>25080</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -5252,42 +4080,22 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>空席待ち:25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>空席待ち:23080</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>空席待ち:29780</t>
+          <t>29780</t>
         </is>
       </c>
     </row>
@@ -5319,7 +4127,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>25080</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -5329,40 +4137,20 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -5386,7 +4174,11 @@
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>25080</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>25080</t>
@@ -5394,40 +4186,20 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -5456,12 +4228,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>54380</t>
+          <t>49080</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>56380</t>
+          <t>25080</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -5471,40 +4243,20 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -5528,7 +4280,11 @@
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>25080</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>25080</t>
@@ -5536,40 +4292,20 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -5599,7 +4335,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>25080</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -5609,40 +4345,20 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -5676,7 +4392,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>25080</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -5686,40 +4402,20 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -5743,7 +4439,11 @@
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>25080</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>25080</t>
@@ -5751,40 +4451,20 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>満席</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
-        <is>
-          <t>満席</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>満席</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -5818,7 +4498,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>50280</t>
+          <t>25080</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -5828,40 +4508,20 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>満席</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -5885,7 +4545,11 @@
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>25080</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>25080</t>
@@ -5893,40 +4557,20 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>満席</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>満席</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>満席</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -5960,7 +4604,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>50280</t>
+          <t>25080</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -5970,40 +4614,20 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -6035,7 +4659,11 @@
           <t>50280</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>25080</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>25080</t>
@@ -6043,40 +4671,20 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -6105,10 +4713,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>50280</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>62080</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>25080</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>25080</t>
@@ -6116,40 +4728,20 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>満席</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -6181,7 +4773,11 @@
           <t>50280</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>25080</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>25080</t>
@@ -6189,40 +4785,20 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -6246,7 +4822,11 @@
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>25080</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>25080</t>
@@ -6254,40 +4834,20 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>満席</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
-        <is>
-          <t>満席</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>満席</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -6311,17 +4871,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>47380</t>
+          <t>62080</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>50280</t>
+          <t>62080</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>50280</t>
+          <t>25080</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -6331,40 +4891,20 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -6398,7 +4938,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>25080</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -6408,40 +4948,20 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>満席</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -6475,7 +4995,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>25080</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -6485,40 +5005,20 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -6542,7 +5042,11 @@
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>25080</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>25080</t>
@@ -6550,40 +5054,20 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
         <is>
           <t>29780</t>
         </is>
@@ -6617,7 +5101,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>25080</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -6627,40 +5111,20 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>23080</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>23080</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>29780</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
         <is>
           <t>29780</t>
         </is>

--- a/auto_job_python/yokochi/ana/files/price.xlsx
+++ b/auto_job_python/yokochi/ana/files/price.xlsx
@@ -468,59 +468,59 @@
     <row r="2">
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-04-02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-04-02</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-04-02</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-04-02</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-04-02</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANA3840</t>
+          <t>ANA240</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,56 +530,64 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>08:35</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47680</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>47680</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ANA240</t>
+          <t>ANA3840</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -589,57 +597,49 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08:35</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>50880</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>50880</t>
-        </is>
-      </c>
+          <t>08:40</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
     </row>
@@ -661,52 +661,52 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
     </row>
@@ -723,57 +723,57 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>09:10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -797,42 +797,42 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>38380</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>満席</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
     </row>
@@ -844,62 +844,62 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:40</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>36680</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
     </row>
@@ -919,54 +919,50 @@
           <t>11:55</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>50880</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>50780</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>40280</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
     </row>
@@ -988,52 +984,52 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>空席待ち:51780</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>空席待ち:37980</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
     </row>
@@ -1055,52 +1051,52 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>50780</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>空席待ち:51780</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>空席待ち:37980</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
     </row>
@@ -1112,54 +1108,54 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>空席待ち:51780</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>空席待ち:37980</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
     </row>
@@ -1171,62 +1167,62 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>14:05</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>50780</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>空席待ち:51780</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>空席待ち:37980</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1234,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1250,42 +1246,42 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>空席待ち:51780</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>空席待ち:37980</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
     </row>
@@ -1297,62 +1293,62 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>56380</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>56380</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>空席待ち:51780</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>空席待ち:37980</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
     </row>
@@ -1369,57 +1365,53 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>50880</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>50880</t>
-        </is>
-      </c>
+          <t>47680</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>空席待ち:51780</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>空席待ち:37980</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
     </row>
@@ -1431,49 +1423,49 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14:35</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>空席待ち:51780</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>38380</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>空席待ち:37980</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1500,52 +1492,48 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>50880</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>50880</t>
-        </is>
-      </c>
+          <t>50780</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>空席待ち:51780</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>空席待ち:37980</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
     </row>
@@ -1562,44 +1550,44 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>空席待ち:51780</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>38380</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>空席待ち:37980</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1616,7 +1604,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1626,52 +1614,52 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>50780</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>47180</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>43280</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
     </row>
@@ -1683,62 +1671,62 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>50780</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>40280</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
     </row>
@@ -1755,57 +1743,57 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>40280</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
     </row>
@@ -1817,62 +1805,62 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>18:35</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>59380</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
     </row>
@@ -1884,7 +1872,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1896,42 +1884,42 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
     </row>
@@ -1948,57 +1936,57 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20:55</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>50780</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
     </row>
@@ -2010,62 +1998,62 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:25</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>38380</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>満席</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
     </row>
@@ -2087,52 +2075,52 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
     </row>
@@ -2149,49 +2137,49 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>22:40</t>
+          <t>22:45</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
     </row>
@@ -2213,52 +2201,48 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>50880</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>50880</t>
-        </is>
-      </c>
+          <t>47680</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>45680</t>
+          <t>43580</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>45580</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
     </row>
@@ -2316,39 +2300,39 @@
     <row r="2">
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-04-02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-04-02</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-04-02</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANA3840</t>
+          <t>ANA240</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2358,36 +2342,44 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>08:35</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47680</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>47680</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ANA240</t>
+          <t>ANA3840</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2397,37 +2389,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08:35</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>50880</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>50880</t>
-        </is>
-      </c>
+          <t>08:40</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
     </row>
@@ -2449,32 +2433,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
     </row>
@@ -2491,37 +2475,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2517,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>09:10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2545,22 +2529,22 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>満席</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>38380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
     </row>
@@ -2572,42 +2556,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:40</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>36680</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
     </row>
@@ -2627,34 +2611,30 @@
           <t>11:55</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>50880</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>50780</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>40280</t>
         </is>
       </c>
     </row>
@@ -2676,32 +2656,32 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>空席待ち:47380</t>
         </is>
       </c>
     </row>
@@ -2723,32 +2703,32 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>50780</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>空席待ち:47380</t>
         </is>
       </c>
     </row>
@@ -2760,34 +2740,34 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>空席待ち:47380</t>
         </is>
       </c>
     </row>
@@ -2799,42 +2779,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>14:05</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>50780</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>空席待ち:47380</t>
         </is>
       </c>
     </row>
@@ -2846,7 +2826,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2858,22 +2838,22 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>空席待ち:47380</t>
         </is>
       </c>
     </row>
@@ -2885,42 +2865,42 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>56380</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>56380</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>空席待ち:47380</t>
         </is>
       </c>
     </row>
@@ -2937,37 +2917,33 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>50880</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>50880</t>
-        </is>
-      </c>
+          <t>47680</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>空席待ち:47380</t>
         </is>
       </c>
     </row>
@@ -2979,34 +2955,34 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14:35</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>満席</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>38380</t>
+          <t>空席待ち:47380</t>
         </is>
       </c>
     </row>
@@ -3028,32 +3004,28 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>50880</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>50880</t>
-        </is>
-      </c>
+          <t>50780</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>空席待ち:47380</t>
         </is>
       </c>
     </row>
@@ -3070,29 +3042,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>満席</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>38380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>38380</t>
+          <t>空席待ち:47380</t>
         </is>
       </c>
     </row>
@@ -3104,7 +3076,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3114,32 +3086,32 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>50780</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>38380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>38380</t>
+          <t>43280</t>
         </is>
       </c>
     </row>
@@ -3151,42 +3123,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>50780</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>38380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>38380</t>
+          <t>40280</t>
         </is>
       </c>
     </row>
@@ -3203,37 +3175,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>空席待ち:36680</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>38380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>38380</t>
+          <t>40280</t>
         </is>
       </c>
     </row>
@@ -3245,42 +3217,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>18:35</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>59380</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>38380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>38380</t>
+          <t>36780</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3264,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3304,22 +3276,22 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>38380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>38380</t>
+          <t>36780</t>
         </is>
       </c>
     </row>
@@ -3336,37 +3308,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20:55</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>50780</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>36180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>38380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>38380</t>
+          <t>36780</t>
         </is>
       </c>
     </row>
@@ -3378,42 +3350,42 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:25</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>満席</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>38380</t>
+          <t>36780</t>
         </is>
       </c>
     </row>
@@ -3435,32 +3407,32 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
     </row>
@@ -3477,29 +3449,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>22:40</t>
+          <t>22:45</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
     </row>
@@ -3521,32 +3493,28 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>50880</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>50880</t>
-        </is>
-      </c>
+          <t>47680</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>35180</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>36780</t>
         </is>
       </c>
     </row>
@@ -3609,49 +3577,49 @@
     <row r="2">
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-04-02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-04-02</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-04-02</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-04-02</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANA3840</t>
+          <t>ANA240</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3661,11 +3629,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>08:35</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47680</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>47680</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>25080</t>
@@ -3678,29 +3654,29 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ANA240</t>
+          <t>ANA3840</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3710,19 +3686,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08:35</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>50880</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>50880</t>
-        </is>
-      </c>
+          <t>08:40</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>25080</t>
@@ -3735,22 +3703,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
     </row>
@@ -3772,12 +3740,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -3792,22 +3760,22 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
     </row>
@@ -3824,17 +3792,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3849,22 +3817,22 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3844,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>09:10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3898,22 +3866,22 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>満席</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>満席</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
     </row>
@@ -3925,22 +3893,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:40</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -3955,22 +3923,22 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
     </row>
@@ -3990,14 +3958,10 @@
           <t>11:55</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>50880</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>50780</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4012,22 +3976,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>空席待ち:28080</t>
         </is>
       </c>
     </row>
@@ -4049,12 +4013,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -4064,27 +4028,27 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>空席待ち:25080</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>空席待ち:28080</t>
         </is>
       </c>
     </row>
@@ -4106,12 +4070,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>50780</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -4121,27 +4085,27 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>空席待ち:25080</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>空席待ち:28080</t>
         </is>
       </c>
     </row>
@@ -4153,12 +4117,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -4170,27 +4134,27 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>空席待ち:25080</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>空席待ち:28080</t>
         </is>
       </c>
     </row>
@@ -4202,22 +4166,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>14:05</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>50780</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4227,27 +4191,27 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>空席待ち:25080</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>空席待ち:28080</t>
         </is>
       </c>
     </row>
@@ -4259,7 +4223,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4276,27 +4240,27 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>空席待ち:25080</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>空席待ち:28080</t>
         </is>
       </c>
     </row>
@@ -4308,22 +4272,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>56380</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>56380</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4333,27 +4297,27 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>空席待ち:25080</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>空席待ち:28080</t>
         </is>
       </c>
     </row>
@@ -4370,19 +4334,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>50880</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>50880</t>
-        </is>
-      </c>
+          <t>47680</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>25080</t>
@@ -4390,27 +4350,27 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>空席待ち:25080</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>空席待ち:28080</t>
         </is>
       </c>
     </row>
@@ -4422,12 +4382,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14:35</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -4439,12 +4399,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>空席待ち:25080</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4454,12 +4414,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>満席</t>
+          <t>空席待ち:28080</t>
         </is>
       </c>
     </row>
@@ -4481,14 +4441,10 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>50880</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>50880</t>
-        </is>
-      </c>
+          <t>50780</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>25080</t>
@@ -4496,27 +4452,27 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>空席待ち:25080</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>空席待ち:28080</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4489,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -4545,12 +4501,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>25080</t>
+          <t>空席待ち:25080</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4560,12 +4516,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>満席</t>
+          <t>空席待ち:28080</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4533,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4587,12 +4543,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>50780</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4607,22 +4563,22 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>空席待ち:28080</t>
         </is>
       </c>
     </row>
@@ -4634,22 +4590,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>50780</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4664,22 +4620,22 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>空席待ち:28080</t>
         </is>
       </c>
     </row>
@@ -4696,17 +4652,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4721,22 +4677,22 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>空席待ち:28080</t>
         </is>
       </c>
     </row>
@@ -4748,22 +4704,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>18:35</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>59380</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4778,22 +4734,22 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4761,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4827,22 +4783,22 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
     </row>
@@ -4859,17 +4815,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20:55</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>51980</t>
+          <t>50780</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4884,22 +4840,22 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
     </row>
@@ -4911,22 +4867,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:25</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -4941,22 +4897,22 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>満席</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>満席</t>
+          <t>28080</t>
         </is>
       </c>
     </row>
@@ -4978,12 +4934,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>50880</t>
+          <t>47680</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -4998,22 +4954,22 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
     </row>
@@ -5030,7 +4986,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>22:40</t>
+          <t>22:45</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -5047,22 +5003,22 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
     </row>
@@ -5084,14 +5040,10 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>50880</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>50880</t>
-        </is>
-      </c>
+          <t>47680</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
           <t>25080</t>
@@ -5104,22 +5056,22 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22030</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>空席待ち:22030</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>28080</t>
         </is>
       </c>
     </row>
